--- a/biology/Médecine/Hôpital_Notre-Dame_(Montréal)/Hôpital_Notre-Dame_(Montréal).xlsx
+++ b/biology/Médecine/Hôpital_Notre-Dame_(Montréal)/Hôpital_Notre-Dame_(Montréal).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Notre-Dame_(Montr%C3%A9al)</t>
+          <t>Hôpital_Notre-Dame_(Montréal)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hôpital Notre-Dame (HND) est le premier hôpital francophone laïc de Montréal, fondé en 1880. Situé près du centre-ville, il se trouve à son emplacement actuel, sur la rue Sherbrooke Est, depuis 1924. Il est situé de biais par rapport au parc La Fontaine.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Notre-Dame_(Montr%C3%A9al)</t>
+          <t>Hôpital_Notre-Dame_(Montréal)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,19 +524,21 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vers 1880, devant les graves problèmes de santé publique à Montréal, l’Université Laval à Montréal décide de fonder un hôpital. Cet établissement peut alors accueillir 50 malades, sans égard à leur nationalité ou leur religion, malgré sa dédication à Notre Dame[1].
-C’est le secrétaire de l’Université Laval à Montréal, le docteur Emmanuel Persillier-Lachapelle, qui reçoit le mandat de fonder la nouvelle institution de santé. Il est aidé dans sa mission par le sulpicien Benjamin-Victor Rousselot, curé de la paroisse Notre-Dame, ainsi que par Mère Julie Haineault-Deschamps, de la congrégation des Sœurs grises[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vers 1880, devant les graves problèmes de santé publique à Montréal, l’Université Laval à Montréal décide de fonder un hôpital. Cet établissement peut alors accueillir 50 malades, sans égard à leur nationalité ou leur religion, malgré sa dédication à Notre Dame.
+C’est le secrétaire de l’Université Laval à Montréal, le docteur Emmanuel Persillier-Lachapelle, qui reçoit le mandat de fonder la nouvelle institution de santé. Il est aidé dans sa mission par le sulpicien Benjamin-Victor Rousselot, curé de la paroisse Notre-Dame, ainsi que par Mère Julie Haineault-Deschamps, de la congrégation des Sœurs grises.
 Le 27 juillet 1880, l'Hôpital Notre-Dame ouvre ses portes. Il loge dans les anciens locaux de l'hôtel Donegana sur la rue Notre-Dame, angle nord-ouest de la rue Berri.
 Dès le début, l’hôpital se constitue en corporation laïque. Il est administré par des médecins et non par les prêtres, ce qui est une innovation à l’époque. C’est un hôpital universitaire, alors, outre le traitement des malades, il sert comme institution d’enseignement pour les futurs médecins.
 Vers la fin du XIXe siècle, l’hôpital Notre-Dame devient un des hôpitaux les plus grands du Canada. En effet, il possède six dispensaires spécialisés : médecine générale, chirurgie, psychiatrie, oto-rhino-laryngologie, ophtalmologie et électricité médicale. De plus, en 1898, la sœur Élodie Mailloux fonde à l’hôpital la première École d’infirmières canadiennes-françaises. Au cours de son existence, cette école a formé plus de 3 000 diplômées.
 Au Canada, la première intervention réalisée selon les règles modernes d’asepsie a été effectuée à l’Hôpital Notre-Dame en 1899. En 1920, après la création de l’Université de Montréal, l’hôpital Notre-Dame s’associe à cet établissement.
-C’est en 1924 que l'hôpital Notre-Dame emménage dans les locaux qu’il occupe aujourd’hui sur la rue Sherbrooke[3]. Cet édifice est conçu par les architectes Alfred-Hector Lapierre, avec Edward F. Stevens (en) et Frederick Clare Lee de son agence Stevens et Lee, qui se spécialisent dans la conception d'hôpitaux[4].
+C’est en 1924 que l'hôpital Notre-Dame emménage dans les locaux qu’il occupe aujourd’hui sur la rue Sherbrooke. Cet édifice est conçu par les architectes Alfred-Hector Lapierre, avec Edward F. Stevens (en) et Frederick Clare Lee de son agence Stevens et Lee, qui se spécialisent dans la conception d'hôpitaux.
 En 1996, la fusion de l’Hôtel-Dieu de Montréal, de l'Hôpital Notre-Dame et de l’Hôpital Saint-Luc donne naissance au Centre hospitalier de l’Université de Montréal (CHUM).
-En 2012, une histoire sordide d'un double meurtre et d'un agression au département de psychiatrie de l’hôpital a fait froid dans le dos puisque les décès des deux personnes avaient d'abord été présentés comme des morts naturelles[5],[6],[7].
-En 2017, à la suite de l'inauguration du nouvel édifice du CHUM, près du site de l'ex-hôpital Saint-Luc, les activités qui avaient cours à l'hôpital Notre-Dame sont déménagées dans le nouveau bâtiment et les patients sont déménagés dans le nouvel édifice du CHUM[8].
-Le 27 novembre 2017, l'Hôpital Notre-Dame est cédé au CIUSSS du Centre-Sud-de-l'Île-de-Montréal et retrouve, par le fait-même, sa vocation d'hôpital de soins généraux[9],[10].
+En 2012, une histoire sordide d'un double meurtre et d'un agression au département de psychiatrie de l’hôpital a fait froid dans le dos puisque les décès des deux personnes avaient d'abord été présentés comme des morts naturelles.
+En 2017, à la suite de l'inauguration du nouvel édifice du CHUM, près du site de l'ex-hôpital Saint-Luc, les activités qui avaient cours à l'hôpital Notre-Dame sont déménagées dans le nouveau bâtiment et les patients sont déménagés dans le nouvel édifice du CHUM.
+Le 27 novembre 2017, l'Hôpital Notre-Dame est cédé au CIUSSS du Centre-Sud-de-l'Île-de-Montréal et retrouve, par le fait-même, sa vocation d'hôpital de soins généraux,.
 </t>
         </is>
       </c>
